--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Enho</t>
+  </si>
+  <si>
+    <t>Gpr19</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Enho</t>
-  </si>
-  <si>
-    <t>Gpr19</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06589833333333334</v>
+        <v>0.272149</v>
       </c>
       <c r="H2">
-        <v>0.197695</v>
+        <v>0.816447</v>
       </c>
       <c r="I2">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="J2">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9712506666666666</v>
+        <v>0.8325143333333335</v>
       </c>
       <c r="N2">
-        <v>2.913752</v>
+        <v>2.497543</v>
       </c>
       <c r="O2">
-        <v>0.1447761544806593</v>
+        <v>0.1150956219623459</v>
       </c>
       <c r="P2">
-        <v>0.1447761544806593</v>
+        <v>0.1150956219623459</v>
       </c>
       <c r="Q2">
-        <v>0.06400380018222222</v>
+        <v>0.2265679433023334</v>
       </c>
       <c r="R2">
-        <v>0.57603420164</v>
+        <v>2.039111489721</v>
       </c>
       <c r="S2">
-        <v>0.006611465144752418</v>
+        <v>0.02973817326286623</v>
       </c>
       <c r="T2">
-        <v>0.006611465144752418</v>
+        <v>0.02973817326286623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06589833333333334</v>
+        <v>0.272149</v>
       </c>
       <c r="H3">
-        <v>0.197695</v>
+        <v>0.816447</v>
       </c>
       <c r="I3">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="J3">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.430745</v>
       </c>
       <c r="O3">
-        <v>0.3692128520294062</v>
+        <v>0.3424350321170013</v>
       </c>
       <c r="P3">
-        <v>0.3692128520294062</v>
+        <v>0.3424350321170013</v>
       </c>
       <c r="Q3">
-        <v>0.1632245703083333</v>
+        <v>0.674089940335</v>
       </c>
       <c r="R3">
-        <v>1.469021132775</v>
+        <v>6.066809463015</v>
       </c>
       <c r="S3">
-        <v>0.01686077317734773</v>
+        <v>0.08847766876573371</v>
       </c>
       <c r="T3">
-        <v>0.01686077317734773</v>
+        <v>0.08847766876573371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06589833333333334</v>
+        <v>0.272149</v>
       </c>
       <c r="H4">
-        <v>0.197695</v>
+        <v>0.816447</v>
       </c>
       <c r="I4">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="J4">
-        <v>0.04566681003835924</v>
+        <v>0.258377970906619</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.761601666666667</v>
+        <v>2.477848</v>
       </c>
       <c r="N4">
-        <v>8.284805</v>
+        <v>7.433543999999999</v>
       </c>
       <c r="O4">
-        <v>0.4116486950578287</v>
+        <v>0.3425640199445872</v>
       </c>
       <c r="P4">
-        <v>0.4116486950578286</v>
+        <v>0.3425640199445872</v>
       </c>
       <c r="Q4">
-        <v>0.1819849471638889</v>
+        <v>0.674343855352</v>
       </c>
       <c r="R4">
-        <v>1.637864524475</v>
+        <v>6.069094698168</v>
       </c>
       <c r="S4">
-        <v>0.01879868275974433</v>
+        <v>0.08851099637889702</v>
       </c>
       <c r="T4">
-        <v>0.01879868275974433</v>
+        <v>0.08851099637889702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.272149</v>
+      </c>
+      <c r="H5">
+        <v>0.816447</v>
+      </c>
+      <c r="I5">
+        <v>0.258377970906619</v>
+      </c>
+      <c r="J5">
+        <v>0.258377970906619</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.06589833333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.197695</v>
-      </c>
-      <c r="I5">
-        <v>0.04566681003835924</v>
-      </c>
-      <c r="J5">
-        <v>0.04566681003835924</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.4988696666666666</v>
+        <v>1.445963333333333</v>
       </c>
       <c r="N5">
-        <v>1.496609</v>
+        <v>4.33789</v>
       </c>
       <c r="O5">
-        <v>0.07436229843210575</v>
+        <v>0.1999053259760655</v>
       </c>
       <c r="P5">
-        <v>0.07436229843210575</v>
+        <v>0.1999053259760655</v>
       </c>
       <c r="Q5">
-        <v>0.03287467958388889</v>
+        <v>0.3935174752033334</v>
       </c>
       <c r="R5">
-        <v>0.295872116255</v>
+        <v>3.54165727683</v>
       </c>
       <c r="S5">
-        <v>0.003395888956514753</v>
+        <v>0.05165113249912204</v>
       </c>
       <c r="T5">
-        <v>0.003395888956514753</v>
+        <v>0.05165113249912204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.272149</v>
+        <v>0.781149</v>
       </c>
       <c r="H6">
-        <v>0.816447</v>
+        <v>2.343447</v>
       </c>
       <c r="I6">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="J6">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9712506666666666</v>
+        <v>0.8325143333333335</v>
       </c>
       <c r="N6">
-        <v>2.913752</v>
+        <v>2.497543</v>
       </c>
       <c r="O6">
-        <v>0.1447761544806593</v>
+        <v>0.1150956219623459</v>
       </c>
       <c r="P6">
-        <v>0.1447761544806593</v>
+        <v>0.1150956219623459</v>
       </c>
       <c r="Q6">
-        <v>0.2643248976826666</v>
+        <v>0.6503177389690001</v>
       </c>
       <c r="R6">
-        <v>2.378924079144</v>
+        <v>5.852859650721</v>
       </c>
       <c r="S6">
-        <v>0.02730423573199969</v>
+        <v>0.08535744869947966</v>
       </c>
       <c r="T6">
-        <v>0.02730423573199968</v>
+        <v>0.08535744869947964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.272149</v>
+        <v>0.781149</v>
       </c>
       <c r="H7">
-        <v>0.816447</v>
+        <v>2.343447</v>
       </c>
       <c r="I7">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="J7">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.430745</v>
       </c>
       <c r="O7">
-        <v>0.3692128520294062</v>
+        <v>0.3424350321170013</v>
       </c>
       <c r="P7">
-        <v>0.3692128520294062</v>
+        <v>0.3424350321170013</v>
       </c>
       <c r="Q7">
-        <v>0.674089940335</v>
+        <v>1.934839675335</v>
       </c>
       <c r="R7">
-        <v>6.066809463015</v>
+        <v>17.413557078015</v>
       </c>
       <c r="S7">
-        <v>0.06963214890779244</v>
+        <v>0.2539573633512676</v>
       </c>
       <c r="T7">
-        <v>0.06963214890779243</v>
+        <v>0.2539573633512676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.272149</v>
+        <v>0.781149</v>
       </c>
       <c r="H8">
-        <v>0.816447</v>
+        <v>2.343447</v>
       </c>
       <c r="I8">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="J8">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.761601666666667</v>
+        <v>2.477848</v>
       </c>
       <c r="N8">
-        <v>8.284805</v>
+        <v>7.433543999999999</v>
       </c>
       <c r="O8">
-        <v>0.4116486950578287</v>
+        <v>0.3425640199445872</v>
       </c>
       <c r="P8">
-        <v>0.4116486950578286</v>
+        <v>0.3425640199445872</v>
       </c>
       <c r="Q8">
-        <v>0.7515671319816668</v>
+        <v>1.935568487352</v>
       </c>
       <c r="R8">
-        <v>6.764104187835001</v>
+        <v>17.420116386168</v>
       </c>
       <c r="S8">
-        <v>0.07763538856898244</v>
+        <v>0.2540530235656902</v>
       </c>
       <c r="T8">
-        <v>0.07763538856898242</v>
+        <v>0.2540530235656902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,294 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.272149</v>
+        <v>0.781149</v>
       </c>
       <c r="H9">
-        <v>0.816447</v>
+        <v>2.343447</v>
       </c>
       <c r="I9">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="J9">
-        <v>0.1885962217324074</v>
+        <v>0.7416220290933809</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4988696666666666</v>
+        <v>1.445963333333333</v>
       </c>
       <c r="N9">
-        <v>1.496609</v>
+        <v>4.33789</v>
       </c>
       <c r="O9">
-        <v>0.07436229843210575</v>
+        <v>0.1999053259760655</v>
       </c>
       <c r="P9">
-        <v>0.07436229843210575</v>
+        <v>0.1999053259760655</v>
       </c>
       <c r="Q9">
-        <v>0.1357668809136667</v>
+        <v>1.12951281187</v>
       </c>
       <c r="R9">
-        <v>1.221901928223</v>
+        <v>10.16561530683</v>
       </c>
       <c r="S9">
-        <v>0.01402444852363287</v>
+        <v>0.1482541934769434</v>
       </c>
       <c r="T9">
-        <v>0.01402444852363287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.104977333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.314932</v>
-      </c>
-      <c r="I10">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="J10">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.9712506666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.913752</v>
-      </c>
-      <c r="O10">
-        <v>0.1447761544806593</v>
-      </c>
-      <c r="P10">
-        <v>0.1447761544806593</v>
-      </c>
-      <c r="Q10">
-        <v>1.073209971651556</v>
-      </c>
-      <c r="R10">
-        <v>9.658889744864</v>
-      </c>
-      <c r="S10">
-        <v>0.1108604536039071</v>
-      </c>
-      <c r="T10">
-        <v>0.1108604536039071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.104977333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.314932</v>
-      </c>
-      <c r="I11">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="J11">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.476915</v>
-      </c>
-      <c r="N11">
-        <v>7.430745</v>
-      </c>
-      <c r="O11">
-        <v>0.3692128520294062</v>
-      </c>
-      <c r="P11">
-        <v>0.3692128520294062</v>
-      </c>
-      <c r="Q11">
-        <v>2.736934931593334</v>
-      </c>
-      <c r="R11">
-        <v>24.63241438434</v>
-      </c>
-      <c r="S11">
-        <v>0.2827199299442661</v>
-      </c>
-      <c r="T11">
-        <v>0.2827199299442661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.104977333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.314932</v>
-      </c>
-      <c r="I12">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="J12">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.761601666666667</v>
-      </c>
-      <c r="N12">
-        <v>8.284805</v>
-      </c>
-      <c r="O12">
-        <v>0.4116486950578287</v>
-      </c>
-      <c r="P12">
-        <v>0.4116486950578286</v>
-      </c>
-      <c r="Q12">
-        <v>3.051507245362223</v>
-      </c>
-      <c r="R12">
-        <v>27.46356520826</v>
-      </c>
-      <c r="S12">
-        <v>0.3152146237291019</v>
-      </c>
-      <c r="T12">
-        <v>0.3152146237291019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.104977333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.314932</v>
-      </c>
-      <c r="I13">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="J13">
-        <v>0.7657369682292333</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.4988696666666666</v>
-      </c>
-      <c r="N13">
-        <v>1.496609</v>
-      </c>
-      <c r="O13">
-        <v>0.07436229843210575</v>
-      </c>
-      <c r="P13">
-        <v>0.07436229843210575</v>
-      </c>
-      <c r="Q13">
-        <v>0.5512396739542222</v>
-      </c>
-      <c r="R13">
-        <v>4.961157065588</v>
-      </c>
-      <c r="S13">
-        <v>0.05694196095195812</v>
-      </c>
-      <c r="T13">
-        <v>0.05694196095195812</v>
+        <v>0.1482541934769434</v>
       </c>
     </row>
   </sheetData>
